--- a/final_DS_UG_700_jobs.xlsx
+++ b/final_DS_UG_700_jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15145\Desktop\projects\DA_DataScience_jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F820ED6-7040-4946-B07F-2EF6BAB2AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7EC7E2-2196-4E69-84C5-AF1F5C1A95DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All DS DATA" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="Packages stats" sheetId="4" r:id="rId4"/>
     <sheet name="State stats" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Tool stats'!$B$2:$B$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Tool stats'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Tool stats'!$C$2:$C$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tool stats'!$B$2:$B$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Tool stats'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Tool stats'!$C$2:$C$19</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -4198,6 +4206,689 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B52011D2-D99C-4CA1-B3D2-F22CAE6FC389}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Count</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{283D0E3C-8656-4018-AC59-805FC4BEF392}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0241EC34-DF73-E5F2-2C65-F5A133C85489}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800600" y="1181100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4487,7 +5178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+    <sheetView topLeftCell="A448" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -21630,8 +22321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21910,6 +22601,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/final_DS_UG_700_jobs.xlsx
+++ b/final_DS_UG_700_jobs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15145\Desktop\projects\DA_DataScience_jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7EC7E2-2196-4E69-84C5-AF1F5C1A95DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2232394-FF82-4A69-BB11-234465040704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All DS DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Tool stats" sheetId="2" r:id="rId2"/>
     <sheet name="Language stats" sheetId="3" r:id="rId3"/>
     <sheet name="Packages stats" sheetId="4" r:id="rId4"/>
@@ -23,9 +23,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Tool stats'!$B$2:$B$19</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Tool stats'!$C$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Tool stats'!$C$2:$C$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tool stats'!$B$2:$B$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Tool stats'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Tool stats'!$C$2:$C$19</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -5178,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K489"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22321,7 +22318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
